--- a/data/trans_orig/P34F1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34F1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE4BD9B-D289-4E65-A9A3-AC3191DC7A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A837D69-3CAF-443F-ACAE-02115976A83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01A7626B-D5EC-4271-B019-0AE93D36ED93}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F08DCBF-3796-4A54-9D33-79980C3C7342}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="517">
   <si>
     <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -72,1558 +72,1522 @@
     <t>32,23%</t>
   </si>
   <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>2,96%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1571F729-48C6-4ED8-8E5B-4D670A02739E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F21133-6797-4D44-9BC1-A4B0326B8CDD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2327,13 +2291,13 @@
         <v>53552</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -2342,13 +2306,13 @@
         <v>79961</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,10 +2327,10 @@
         <v>37686</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>47</v>
@@ -2435,7 +2399,7 @@
         <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>88</v>
@@ -2444,13 +2408,13 @@
         <v>93509</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2429,13 @@
         <v>8144</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -2480,13 +2444,13 @@
         <v>21849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2495,13 +2459,13 @@
         <v>29993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2480,13 @@
         <v>270577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>336</v>
@@ -2531,13 +2495,13 @@
         <v>385790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -2546,13 +2510,13 @@
         <v>656367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2531,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -2582,13 +2546,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -2597,18 +2561,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5">
         <v>7</v>
@@ -2620,13 +2584,13 @@
         <v>630600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>547</v>
@@ -2635,13 +2599,13 @@
         <v>563847</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>1141</v>
@@ -2650,13 +2614,13 @@
         <v>1194447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2635,13 @@
         <v>94614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>76</v>
@@ -2686,13 +2650,13 @@
         <v>79442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>164</v>
@@ -2701,13 +2665,13 @@
         <v>174055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2686,13 @@
         <v>272673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>266</v>
@@ -2737,13 +2701,13 @@
         <v>275269</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M15" s="7">
         <v>524</v>
@@ -2752,13 +2716,13 @@
         <v>547942</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2737,13 @@
         <v>82549</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -2788,13 +2752,13 @@
         <v>100172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -2803,13 +2767,13 @@
         <v>182721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,10 +2788,10 @@
         <v>134299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>119</v>
@@ -2932,7 +2896,7 @@
         <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -2941,13 +2905,13 @@
         <v>71235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>116</v>
@@ -2956,13 +2920,13 @@
         <v>124371</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +2992,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -3043,13 +3007,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -3058,13 +3022,13 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3111,13 @@
         <v>13504</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -3162,13 +3126,13 @@
         <v>37622</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3147,13 @@
         <v>57058</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -3198,13 +3162,13 @@
         <v>64389</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -3213,13 +3177,13 @@
         <v>121447</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3198,13 @@
         <v>17048</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3249,13 +3213,13 @@
         <v>26838</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -3264,13 +3228,13 @@
         <v>43886</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3249,13 @@
         <v>50325</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3300,10 +3264,10 @@
         <v>55341</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>190</v>
@@ -3354,10 +3318,10 @@
         <v>197</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>91</v>
@@ -3366,13 +3330,13 @@
         <v>98610</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3351,13 @@
         <v>12585</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -3402,13 +3366,13 @@
         <v>14218</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -3489,13 +3453,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -3504,13 +3468,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -3519,13 +3483,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3527,7 @@
         <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>1948</v>
@@ -3572,13 +3536,13 @@
         <v>2044806</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3557,13 @@
         <v>150809</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>129</v>
@@ -3608,13 +3572,13 @@
         <v>135573</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>268</v>
@@ -3623,13 +3587,13 @@
         <v>286383</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3608,7 @@
         <v>420653</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>234</v>
@@ -3698,10 +3662,10 @@
         <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>173</v>
@@ -3710,13 +3674,13 @@
         <v>180561</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>293</v>
@@ -3725,13 +3689,13 @@
         <v>306567</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3710,13 @@
         <v>222310</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>51</v>
       </c>
       <c r="H35" s="7">
         <v>269</v>
@@ -3761,13 +3725,13 @@
         <v>289288</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>479</v>
@@ -3776,13 +3740,13 @@
         <v>511597</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3761,13 @@
         <v>229091</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="H36" s="7">
         <v>230</v>
@@ -3815,10 +3779,10 @@
         <v>132</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>445</v>
@@ -3827,13 +3791,13 @@
         <v>475282</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3812,13 @@
         <v>73864</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>102</v>
@@ -3863,13 +3827,13 @@
         <v>107303</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -3878,13 +3842,13 @@
         <v>181166</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3863,13 @@
         <v>1099584</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>1049</v>
@@ -3914,13 +3878,13 @@
         <v>1131106</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>2106</v>
@@ -3929,13 +3893,13 @@
         <v>2230690</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3914,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -3965,13 +3929,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -3980,18 +3944,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +3974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBEDF61-DC8C-4E83-8D1B-B132C5B6ADAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C302EB7-CD40-4C34-B16D-27F83680F682}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,7 +3991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4134,13 +4098,13 @@
         <v>200665</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
         <v>345</v>
@@ -4149,28 +4113,28 @@
         <v>206499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
         <v>604</v>
       </c>
       <c r="N4" s="7">
-        <v>407164</v>
+        <v>407163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4149,13 @@
         <v>61159</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
         <v>168</v>
@@ -4200,13 +4164,13 @@
         <v>104693</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>244</v>
@@ -4215,13 +4179,13 @@
         <v>165851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4200,13 @@
         <v>61330</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H6" s="7">
         <v>157</v>
@@ -4251,13 +4215,13 @@
         <v>88568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M6" s="7">
         <v>231</v>
@@ -4266,13 +4230,13 @@
         <v>149898</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4251,13 @@
         <v>15765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4302,13 +4266,13 @@
         <v>23458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4317,13 +4281,13 @@
         <v>39223</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4302,13 @@
         <v>25475</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -4353,13 +4317,13 @@
         <v>46615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -4368,13 +4332,13 @@
         <v>72090</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4353,13 @@
         <v>11969</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4404,10 +4368,10 @@
         <v>34807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>325</v>
@@ -4425,7 +4389,7 @@
         <v>327</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4404,13 @@
         <v>4035</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4455,13 +4419,13 @@
         <v>15568</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4470,13 +4434,13 @@
         <v>19602</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4455,13 @@
         <v>152916</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -4506,22 +4470,22 @@
         <v>302079</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>723</v>
       </c>
       <c r="N11" s="7">
-        <v>454996</v>
+        <v>454995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>343</v>
@@ -4542,13 +4506,13 @@
         <v>533314</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1408</v>
@@ -4557,33 +4521,33 @@
         <v>822286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>2091</v>
       </c>
       <c r="N12" s="7">
-        <v>1355600</v>
+        <v>1355599</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5">
         <v>7</v>
@@ -4598,10 +4562,10 @@
         <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>1220</v>
@@ -4610,13 +4574,13 @@
         <v>943888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>2071</v>
@@ -4625,13 +4589,13 @@
         <v>1803671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4610,13 @@
         <v>334745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -4661,13 +4625,13 @@
         <v>250798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -4676,13 +4640,13 @@
         <v>585543</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4661,13 @@
         <v>243860</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H15" s="7">
         <v>393</v>
@@ -4712,13 +4676,13 @@
         <v>283958</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M15" s="7">
         <v>614</v>
@@ -4727,13 +4691,13 @@
         <v>527819</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4712,13 @@
         <v>72617</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -4763,13 +4727,13 @@
         <v>90452</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -4781,10 +4745,10 @@
         <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4763,13 @@
         <v>111071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -4814,13 +4778,13 @@
         <v>156617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -4829,13 +4793,13 @@
         <v>267688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4814,13 @@
         <v>70727</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>390</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -4865,13 +4829,13 @@
         <v>84388</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="M18" s="7">
         <v>154</v>
@@ -4880,13 +4844,13 @@
         <v>155115</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>396</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4865,13 @@
         <v>27695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -4916,13 +4880,13 @@
         <v>36102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -4931,13 +4895,13 @@
         <v>63797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4916,13 @@
         <v>419716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>484</v>
@@ -4967,13 +4931,13 @@
         <v>380745</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>866</v>
@@ -4982,13 +4946,13 @@
         <v>800462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4967,13 @@
         <v>2140214</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>2889</v>
@@ -5018,13 +4982,13 @@
         <v>2226950</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>4863</v>
@@ -5033,13 +4997,13 @@
         <v>4367164</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5020,13 @@
         <v>326269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>492</v>
@@ -5071,13 +5035,13 @@
         <v>342786</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>845</v>
@@ -5086,13 +5050,13 @@
         <v>669055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5071,13 @@
         <v>66731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -5122,13 +5086,13 @@
         <v>41425</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>414</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>113</v>
@@ -5137,13 +5101,13 @@
         <v>108155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5122,13 @@
         <v>90896</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>431</v>
+        <v>293</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H24" s="7">
         <v>148</v>
@@ -5173,13 +5137,13 @@
         <v>98911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>239</v>
@@ -5188,13 +5152,13 @@
         <v>189807</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>188</v>
+        <v>425</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5173,13 @@
         <v>27224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>439</v>
+        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5224,13 +5188,13 @@
         <v>33301</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>52</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -5239,13 +5203,13 @@
         <v>60524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>443</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>45</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5224,13 @@
         <v>39197</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>323</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -5275,13 +5239,13 @@
         <v>59951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>428</v>
+        <v>59</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -5290,13 +5254,13 @@
         <v>99148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5275,13 @@
         <v>26625</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -5326,13 +5290,13 @@
         <v>36249</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>457</v>
+        <v>47</v>
       </c>
       <c r="M27" s="7">
         <v>79</v>
@@ -5341,13 +5305,13 @@
         <v>62874</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5326,13 @@
         <v>4903</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -5377,13 +5341,13 @@
         <v>9461</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -5392,13 +5356,13 @@
         <v>14364</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5377,13 @@
         <v>83515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>362</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>119</v>
@@ -5428,13 +5392,13 @@
         <v>88741</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>196</v>
@@ -5443,13 +5407,13 @@
         <v>172256</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>106</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5428,13 @@
         <v>665359</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>999</v>
@@ -5479,13 +5443,13 @@
         <v>710824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M30" s="7">
         <v>1673</v>
@@ -5494,13 +5458,13 @@
         <v>1376183</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5481,13 @@
         <v>1386717</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>2057</v>
@@ -5532,13 +5496,13 @@
         <v>1493172</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="M31" s="7">
         <v>3520</v>
@@ -5547,13 +5511,13 @@
         <v>2879889</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5532,13 @@
         <v>462634</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>28</v>
+        <v>472</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>526</v>
@@ -5583,13 +5547,13 @@
         <v>396916</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>488</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>489</v>
+        <v>34</v>
       </c>
       <c r="M32" s="7">
         <v>931</v>
@@ -5598,13 +5562,13 @@
         <v>859550</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>299</v>
+        <v>476</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5583,13 @@
         <v>396087</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="H33" s="7">
         <v>698</v>
@@ -5634,13 +5598,13 @@
         <v>471437</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="M33" s="7">
         <v>1084</v>
@@ -5649,13 +5613,13 @@
         <v>867523</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>198</v>
+        <v>484</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>234</v>
+        <v>485</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5634,13 @@
         <v>115605</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>163</v>
+        <v>488</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H34" s="7">
         <v>216</v>
@@ -5685,13 +5649,13 @@
         <v>147211</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="M34" s="7">
         <v>321</v>
@@ -5700,13 +5664,13 @@
         <v>262816</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>316</v>
+        <v>494</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5685,13 @@
         <v>175742</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>259</v>
+        <v>496</v>
       </c>
       <c r="H35" s="7">
         <v>381</v>
@@ -5736,13 +5700,13 @@
         <v>263184</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>505</v>
+        <v>182</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>385</v>
+        <v>497</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>506</v>
+        <v>192</v>
       </c>
       <c r="M35" s="7">
         <v>554</v>
@@ -5751,13 +5715,13 @@
         <v>438926</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>508</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5736,13 @@
         <v>109321</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>511</v>
+        <v>427</v>
       </c>
       <c r="H36" s="7">
         <v>205</v>
@@ -5787,13 +5751,13 @@
         <v>155445</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>307</v>
@@ -5805,10 +5769,10 @@
         <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5787,13 @@
         <v>36633</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>513</v>
+        <v>391</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>514</v>
+        <v>328</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="H37" s="7">
         <v>86</v>
@@ -5838,13 +5802,13 @@
         <v>61131</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M37" s="7">
         <v>125</v>
@@ -5853,13 +5817,13 @@
         <v>97764</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>208</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5838,13 @@
         <v>656147</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="H38" s="7">
         <v>1127</v>
@@ -5889,13 +5853,13 @@
         <v>771565</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="M38" s="7">
         <v>1785</v>
@@ -5904,13 +5868,13 @@
         <v>1427713</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5889,13 @@
         <v>3338886</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" s="7">
         <v>5296</v>
@@ -5940,13 +5904,13 @@
         <v>3760060</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M39" s="7">
         <v>8627</v>
@@ -5955,18 +5919,18 @@
         <v>7098946</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34F1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34F1-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A837D69-3CAF-443F-ACAE-02115976A83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5919DE3F-CA5A-4504-A3A7-A12E21468CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F08DCBF-3796-4A54-9D33-79980C3C7342}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BED0B0C6-3DAB-43CE-B540-17795B003AE6}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="517">
-  <si>
-    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="514">
+  <si>
+    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -72,1480 +72,1471 @@
     <t>32,23%</t>
   </si>
   <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>21,06%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
   </si>
   <si>
     <t>1,5%</t>
@@ -1999,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F21133-6797-4D44-9BC1-A4B0326B8CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF950FC-5010-407D-A29A-735D7E3C2F64}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2291,13 +2282,13 @@
         <v>53552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -2306,13 +2297,13 @@
         <v>79961</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2318,13 @@
         <v>37686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -2342,13 +2333,13 @@
         <v>93510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>124</v>
@@ -2357,13 +2348,13 @@
         <v>131195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2369,13 @@
         <v>45382</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -2393,13 +2384,13 @@
         <v>48126</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>88</v>
@@ -2408,13 +2399,13 @@
         <v>93509</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2420,13 @@
         <v>8144</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -2444,13 +2435,13 @@
         <v>21849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2459,13 +2450,13 @@
         <v>29993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2471,13 @@
         <v>270577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>336</v>
@@ -2495,13 +2486,13 @@
         <v>385790</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -2510,13 +2501,13 @@
         <v>656367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2522,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -2546,13 +2537,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -2561,18 +2552,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5">
         <v>7</v>
@@ -2584,13 +2575,13 @@
         <v>630600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>547</v>
@@ -2599,13 +2590,13 @@
         <v>563847</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>1141</v>
@@ -2614,7 +2605,7 @@
         <v>1194447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>90</v>
@@ -2656,7 +2647,7 @@
         <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>164</v>
@@ -2665,13 +2656,13 @@
         <v>174055</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2677,13 @@
         <v>272673</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>266</v>
@@ -2701,13 +2692,13 @@
         <v>275269</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M15" s="7">
         <v>524</v>
@@ -2716,13 +2707,13 @@
         <v>547942</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2728,13 @@
         <v>82549</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -2755,10 +2746,10 @@
         <v>39</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -2767,13 +2758,13 @@
         <v>182721</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2779,13 @@
         <v>134299</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -2803,13 +2794,13 @@
         <v>140437</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -2818,13 +2809,13 @@
         <v>274735</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2830,13 @@
         <v>136335</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -2854,13 +2845,13 @@
         <v>146829</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>266</v>
@@ -2869,13 +2860,13 @@
         <v>283164</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2881,13 @@
         <v>53135</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -2905,13 +2896,13 @@
         <v>71235</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>116</v>
@@ -2920,13 +2911,13 @@
         <v>124371</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2983,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -3007,13 +2998,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -3022,13 +3013,13 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3102,13 @@
         <v>13504</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -3126,13 +3117,13 @@
         <v>37622</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3138,13 @@
         <v>57058</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -3162,13 +3153,13 @@
         <v>64389</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -3177,13 +3168,13 @@
         <v>121447</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3189,13 @@
         <v>17048</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3213,13 +3204,13 @@
         <v>26838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -3231,10 +3222,10 @@
         <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3240,13 @@
         <v>50325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3264,13 +3255,13 @@
         <v>55341</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>97</v>
@@ -3279,13 +3270,13 @@
         <v>105667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3291,13 @@
         <v>47374</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H27" s="7">
         <v>48</v>
@@ -3315,13 +3306,13 @@
         <v>51236</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M27" s="7">
         <v>91</v>
@@ -3330,13 +3321,13 @@
         <v>98610</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3342,13 @@
         <v>12585</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -3366,13 +3357,13 @@
         <v>14218</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -3381,13 +3372,13 @@
         <v>26803</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3393,13 @@
         <v>156826</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>132</v>
@@ -3417,13 +3408,13 @@
         <v>134247</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -3432,13 +3423,13 @@
         <v>291073</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3444,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -3468,13 +3459,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -3483,13 +3474,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3497,13 @@
         <v>1055301</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>946</v>
@@ -3521,13 +3512,13 @@
         <v>989505</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>1948</v>
@@ -3536,13 +3527,13 @@
         <v>2044806</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3548,13 @@
         <v>150809</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>129</v>
@@ -3572,13 +3563,13 @@
         <v>135573</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>268</v>
@@ -3587,13 +3578,13 @@
         <v>286383</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3599,13 @@
         <v>420653</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>428</v>
@@ -3623,13 +3614,13 @@
         <v>452573</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M33" s="7">
         <v>832</v>
@@ -3638,13 +3629,13 @@
         <v>873227</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3650,13 @@
         <v>126006</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H34" s="7">
         <v>173</v>
@@ -3674,13 +3665,13 @@
         <v>180561</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>293</v>
@@ -3689,13 +3680,13 @@
         <v>306567</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3701,13 @@
         <v>222310</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="H35" s="7">
         <v>269</v>
@@ -3725,13 +3716,13 @@
         <v>289288</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M35" s="7">
         <v>479</v>
@@ -3740,13 +3731,13 @@
         <v>511597</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3752,13 @@
         <v>229091</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="H36" s="7">
         <v>230</v>
@@ -3776,13 +3767,13 @@
         <v>246191</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="M36" s="7">
         <v>445</v>
@@ -3791,13 +3782,13 @@
         <v>475282</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3803,13 @@
         <v>73864</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
         <v>102</v>
@@ -3827,13 +3818,13 @@
         <v>107303</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -3842,13 +3833,13 @@
         <v>181166</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3854,13 @@
         <v>1099584</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H38" s="7">
         <v>1049</v>
@@ -3878,13 +3869,13 @@
         <v>1131106</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M38" s="7">
         <v>2106</v>
@@ -3893,13 +3884,13 @@
         <v>2230690</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3905,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -3929,13 +3920,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -3944,18 +3935,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +3965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C302EB7-CD40-4C34-B16D-27F83680F682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78972295-3159-47F9-AC8F-66DC5CFD02D7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3991,7 +3982,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4098,13 +4089,13 @@
         <v>200665</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>345</v>
@@ -4113,13 +4104,13 @@
         <v>206499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>604</v>
@@ -4128,13 +4119,13 @@
         <v>407163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4140,13 @@
         <v>61159</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>168</v>
@@ -4164,13 +4155,13 @@
         <v>104693</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>244</v>
@@ -4179,13 +4170,13 @@
         <v>165851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4191,13 @@
         <v>61330</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H6" s="7">
         <v>157</v>
@@ -4215,13 +4206,13 @@
         <v>88568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>231</v>
@@ -4230,13 +4221,13 @@
         <v>149898</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4242,13 @@
         <v>15765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4266,13 +4257,13 @@
         <v>23458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4281,13 +4272,13 @@
         <v>39223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4293,13 @@
         <v>25475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -4317,13 +4308,13 @@
         <v>46615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -4332,13 +4323,13 @@
         <v>72090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4344,13 @@
         <v>11969</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4368,13 +4359,13 @@
         <v>34807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M9" s="7">
         <v>74</v>
@@ -4383,10 +4374,10 @@
         <v>46776</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>162</v>
@@ -4404,13 +4395,13 @@
         <v>4035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4419,13 +4410,13 @@
         <v>15568</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4434,13 +4425,13 @@
         <v>19602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4446,13 @@
         <v>152916</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -4470,13 +4461,13 @@
         <v>302079</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>723</v>
@@ -4485,13 +4476,13 @@
         <v>454995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4497,13 @@
         <v>533314</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1408</v>
@@ -4521,13 +4512,13 @@
         <v>822286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>2091</v>
@@ -4536,18 +4527,18 @@
         <v>1355599</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5">
         <v>7</v>
@@ -4559,13 +4550,13 @@
         <v>859783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>1220</v>
@@ -4574,13 +4565,13 @@
         <v>943888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>2071</v>
@@ -4589,13 +4580,13 @@
         <v>1803671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4601,13 @@
         <v>334745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -4625,13 +4616,13 @@
         <v>250798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -4640,13 +4631,13 @@
         <v>585543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4652,13 @@
         <v>243860</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>361</v>
+        <v>196</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>363</v>
+        <v>179</v>
       </c>
       <c r="H15" s="7">
         <v>393</v>
@@ -4676,13 +4667,13 @@
         <v>283958</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M15" s="7">
         <v>614</v>
@@ -4691,13 +4682,13 @@
         <v>527819</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4703,13 @@
         <v>72617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -4727,13 +4718,13 @@
         <v>90452</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -4742,13 +4733,13 @@
         <v>163069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4754,13 @@
         <v>111071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -4778,13 +4769,13 @@
         <v>156617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -4793,13 +4784,13 @@
         <v>267688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4811,7 @@
         <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -4835,7 +4826,7 @@
         <v>385</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>154</v>
@@ -4844,13 +4835,13 @@
         <v>155115</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4862,7 @@
         <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -4880,13 +4871,13 @@
         <v>36102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -4895,13 +4886,13 @@
         <v>63797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4907,13 @@
         <v>419716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>484</v>
@@ -4931,13 +4922,13 @@
         <v>380745</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M20" s="7">
         <v>866</v>
@@ -4946,13 +4937,13 @@
         <v>800462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4958,13 @@
         <v>2140214</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <v>2889</v>
@@ -4982,13 +4973,13 @@
         <v>2226950</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>4863</v>
@@ -4997,13 +4988,13 @@
         <v>4367164</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5011,13 @@
         <v>326269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H22" s="7">
         <v>492</v>
@@ -5035,13 +5026,13 @@
         <v>342786</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>845</v>
@@ -5050,13 +5041,13 @@
         <v>669055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5062,13 @@
         <v>66731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -5086,13 +5077,13 @@
         <v>41425</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>24</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M23" s="7">
         <v>113</v>
@@ -5101,13 +5092,13 @@
         <v>108155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>127</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5113,13 @@
         <v>90896</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H24" s="7">
         <v>148</v>
@@ -5137,13 +5128,13 @@
         <v>98911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>239</v>
@@ -5152,13 +5143,13 @@
         <v>189807</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5164,13 @@
         <v>27224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>428</v>
+        <v>273</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5188,13 +5179,13 @@
         <v>33301</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -5203,13 +5194,13 @@
         <v>60524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5215,13 @@
         <v>39197</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -5239,10 +5230,10 @@
         <v>59951</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>436</v>
@@ -5257,10 +5248,10 @@
         <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,10 +5269,10 @@
         <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>94</v>
+        <v>439</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -5290,13 +5281,13 @@
         <v>36249</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M27" s="7">
         <v>79</v>
@@ -5305,13 +5296,13 @@
         <v>62874</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>443</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>444</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5317,13 @@
         <v>4903</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -5341,13 +5332,13 @@
         <v>9461</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -5356,13 +5347,13 @@
         <v>14364</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5368,13 @@
         <v>83515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>119</v>
@@ -5392,13 +5383,13 @@
         <v>88741</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>196</v>
@@ -5407,13 +5398,13 @@
         <v>172256</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5419,13 @@
         <v>665359</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" s="7">
         <v>999</v>
@@ -5443,13 +5434,13 @@
         <v>710824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>1673</v>
@@ -5458,13 +5449,13 @@
         <v>1376183</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5472,13 @@
         <v>1386717</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>2057</v>
@@ -5496,13 +5487,13 @@
         <v>1493172</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M31" s="7">
         <v>3520</v>
@@ -5511,13 +5502,13 @@
         <v>2879889</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5523,13 @@
         <v>462634</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>526</v>
@@ -5547,10 +5538,10 @@
         <v>396916</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>34</v>
@@ -5562,13 +5553,13 @@
         <v>859550</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5574,13 @@
         <v>396087</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>480</v>
+        <v>193</v>
       </c>
       <c r="H33" s="7">
         <v>698</v>
@@ -5598,13 +5589,13 @@
         <v>471437</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M33" s="7">
         <v>1084</v>
@@ -5613,13 +5604,13 @@
         <v>867523</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5625,13 @@
         <v>115605</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H34" s="7">
         <v>216</v>
@@ -5649,13 +5640,13 @@
         <v>147211</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>491</v>
+        <v>26</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M34" s="7">
         <v>321</v>
@@ -5664,13 +5655,13 @@
         <v>262816</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>494</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5676,13 @@
         <v>175742</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>184</v>
+        <v>491</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H35" s="7">
         <v>381</v>
@@ -5700,13 +5691,13 @@
         <v>263184</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>182</v>
+        <v>493</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>497</v>
+        <v>113</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>192</v>
+        <v>494</v>
       </c>
       <c r="M35" s="7">
         <v>554</v>
@@ -5715,13 +5706,13 @@
         <v>438926</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5727,13 @@
         <v>109321</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>499</v>
+        <v>184</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="H36" s="7">
         <v>205</v>
@@ -5751,13 +5742,13 @@
         <v>155445</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>501</v>
+        <v>112</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M36" s="7">
         <v>307</v>
@@ -5766,13 +5757,13 @@
         <v>264766</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>494</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>140</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5778,13 @@
         <v>36633</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H37" s="7">
         <v>86</v>
@@ -5802,13 +5793,13 @@
         <v>61131</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M37" s="7">
         <v>125</v>
@@ -5817,13 +5808,13 @@
         <v>97764</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5829,13 @@
         <v>656147</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H38" s="7">
         <v>1127</v>
@@ -5853,13 +5844,13 @@
         <v>771565</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M38" s="7">
         <v>1785</v>
@@ -5868,13 +5859,13 @@
         <v>1427713</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5880,13 @@
         <v>3338886</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" s="7">
         <v>5296</v>
@@ -5904,13 +5895,13 @@
         <v>3760060</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" s="7">
         <v>8627</v>
@@ -5919,18 +5910,18 @@
         <v>7098946</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34F1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34F1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5919DE3F-CA5A-4504-A3A7-A12E21468CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{362100A2-66A1-47F1-A0F1-70ED6D992249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BED0B0C6-3DAB-43CE-B540-17795B003AE6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12A43190-1EA6-42C8-8EA1-755C1D02CA28}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="529">
   <si>
     <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -72,1480 +72,1525 @@
     <t>32,23%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>23,76%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>25,06%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
   </si>
   <si>
     <t>29,39%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días que caminó por lo menos 10 minutos seguidos a lo largo de los últimos 7 días en 2023 (Tasa respuesta: 98,92%)</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>5,49%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>2,05%</t>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,38%</t>
@@ -1557,28 +1602,28 @@
     <t>19,65%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF950FC-5010-407D-A29A-735D7E3C2F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60406B57-56B5-47E1-873E-C1197C9FAF52}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2321,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -2333,13 +2378,13 @@
         <v>93510</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>124</v>
@@ -2348,13 +2393,13 @@
         <v>131195</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2414,13 @@
         <v>45382</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>43</v>
@@ -2384,13 +2429,13 @@
         <v>48126</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>88</v>
@@ -2399,13 +2444,13 @@
         <v>93509</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2465,13 @@
         <v>8144</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -2435,13 +2480,13 @@
         <v>21849</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2450,13 +2495,13 @@
         <v>29993</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2516,13 @@
         <v>270577</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>336</v>
@@ -2486,13 +2531,13 @@
         <v>385790</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -2501,13 +2546,13 @@
         <v>656367</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2567,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -2537,13 +2582,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -2552,18 +2597,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5">
         <v>7</v>
@@ -2575,13 +2620,13 @@
         <v>630600</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>547</v>
@@ -2590,13 +2635,13 @@
         <v>563847</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>1141</v>
@@ -2605,13 +2650,13 @@
         <v>1194447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2671,13 @@
         <v>94614</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>76</v>
@@ -2641,13 +2686,13 @@
         <v>79442</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>164</v>
@@ -2662,7 +2707,7 @@
         <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2722,13 @@
         <v>272673</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>266</v>
@@ -2692,13 +2737,13 @@
         <v>275269</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>524</v>
@@ -2707,13 +2752,13 @@
         <v>547942</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2773,13 @@
         <v>82549</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -2743,7 +2788,7 @@
         <v>100172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>112</v>
@@ -2758,13 +2803,13 @@
         <v>182721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2824,13 @@
         <v>134299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>133</v>
@@ -2794,13 +2839,13 @@
         <v>140437</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>258</v>
@@ -2809,13 +2854,13 @@
         <v>274735</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2875,13 @@
         <v>136335</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -2845,13 +2890,13 @@
         <v>146829</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>266</v>
@@ -2860,13 +2905,13 @@
         <v>283164</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2926,13 @@
         <v>53135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -2983,13 +3028,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -2998,13 +3043,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -3013,13 +3058,13 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3147,13 @@
         <v>13504</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -3117,13 +3162,13 @@
         <v>37622</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3183,13 @@
         <v>57058</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>60</v>
@@ -3153,13 +3198,13 @@
         <v>64389</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -3168,13 +3213,13 @@
         <v>121447</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3234,13 @@
         <v>17048</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -3204,13 +3249,13 @@
         <v>26838</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -3219,13 +3264,13 @@
         <v>43886</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3285,13 @@
         <v>50325</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -3255,13 +3300,13 @@
         <v>55341</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>97</v>
@@ -3270,13 +3315,13 @@
         <v>105667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3336,13 @@
         <v>47374</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>48</v>
@@ -3306,13 +3351,13 @@
         <v>51236</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>91</v>
@@ -3321,13 +3366,13 @@
         <v>98610</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3387,13 @@
         <v>12585</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -3357,13 +3402,13 @@
         <v>14218</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -3372,13 +3417,13 @@
         <v>26803</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3438,13 @@
         <v>156826</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>132</v>
@@ -3408,13 +3453,13 @@
         <v>134247</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -3423,13 +3468,13 @@
         <v>291073</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3489,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -3459,13 +3504,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -3474,13 +3519,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3542,13 @@
         <v>1055301</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>946</v>
@@ -3512,13 +3557,13 @@
         <v>989505</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="M31" s="7">
         <v>1948</v>
@@ -3527,13 +3572,13 @@
         <v>2044806</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3593,13 @@
         <v>150809</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>129</v>
@@ -3563,13 +3608,13 @@
         <v>135573</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="M32" s="7">
         <v>268</v>
@@ -3578,13 +3623,13 @@
         <v>286383</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3644,13 @@
         <v>420653</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H33" s="7">
         <v>428</v>
@@ -3614,13 +3659,13 @@
         <v>452573</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M33" s="7">
         <v>832</v>
@@ -3629,13 +3674,13 @@
         <v>873227</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3695,13 @@
         <v>126006</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>173</v>
@@ -3665,13 +3710,13 @@
         <v>180561</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>293</v>
@@ -3680,13 +3725,13 @@
         <v>306567</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3746,13 @@
         <v>222310</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>269</v>
@@ -3716,13 +3761,13 @@
         <v>289288</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>479</v>
@@ -3731,13 +3776,13 @@
         <v>511597</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3797,13 @@
         <v>229091</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>230</v>
@@ -3767,13 +3812,13 @@
         <v>246191</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>445</v>
@@ -3782,13 +3827,13 @@
         <v>475282</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3848,13 @@
         <v>73864</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>102</v>
@@ -3818,13 +3863,13 @@
         <v>107303</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -3833,13 +3878,13 @@
         <v>181166</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3899,13 @@
         <v>1099584</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>1049</v>
@@ -3869,13 +3914,13 @@
         <v>1131106</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>2106</v>
@@ -3884,13 +3929,13 @@
         <v>2230690</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3950,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -3920,13 +3965,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -3935,18 +3980,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78972295-3159-47F9-AC8F-66DC5CFD02D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D83A17D-F5D2-4B33-A90B-4E7A0FF69CEA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3982,7 +4027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4089,13 +4134,13 @@
         <v>200665</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>345</v>
@@ -4104,28 +4149,28 @@
         <v>206499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>604</v>
       </c>
       <c r="N4" s="7">
-        <v>407163</v>
+        <v>407164</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4185,13 @@
         <v>61159</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
         <v>168</v>
@@ -4155,13 +4200,13 @@
         <v>104693</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>244</v>
@@ -4170,13 +4215,13 @@
         <v>165851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4236,13 @@
         <v>61330</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>157</v>
@@ -4206,13 +4251,13 @@
         <v>88568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>231</v>
@@ -4221,13 +4266,13 @@
         <v>149898</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,10 +4290,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -4257,13 +4302,13 @@
         <v>23458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4272,13 +4317,13 @@
         <v>39223</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4338,13 @@
         <v>25475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -4308,13 +4353,13 @@
         <v>46615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -4323,13 +4368,13 @@
         <v>72090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4389,13 @@
         <v>11969</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4359,13 +4404,13 @@
         <v>34807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>74</v>
@@ -4374,13 +4419,13 @@
         <v>46776</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4440,13 @@
         <v>4035</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4410,13 +4455,13 @@
         <v>15568</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -4425,13 +4470,13 @@
         <v>19602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4491,13 @@
         <v>152916</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -4461,28 +4506,28 @@
         <v>302079</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>723</v>
       </c>
       <c r="N11" s="7">
-        <v>454995</v>
+        <v>454996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4542,13 @@
         <v>533314</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>1408</v>
@@ -4512,33 +4557,33 @@
         <v>822286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>2091</v>
       </c>
       <c r="N12" s="7">
-        <v>1355599</v>
+        <v>1355600</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5">
         <v>7</v>
@@ -4550,13 +4595,13 @@
         <v>859783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>1220</v>
@@ -4565,13 +4610,13 @@
         <v>943888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>2071</v>
@@ -4580,13 +4625,13 @@
         <v>1803671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4646,13 @@
         <v>334745</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -4616,13 +4661,13 @@
         <v>250798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -4631,13 +4676,13 @@
         <v>585543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4697,13 @@
         <v>243860</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>196</v>
+        <v>362</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>179</v>
+        <v>364</v>
       </c>
       <c r="H15" s="7">
         <v>393</v>
@@ -4667,13 +4712,13 @@
         <v>283958</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M15" s="7">
         <v>614</v>
@@ -4682,13 +4727,13 @@
         <v>527819</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4748,13 @@
         <v>72617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H16" s="7">
         <v>129</v>
@@ -4724,7 +4769,7 @@
         <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>46</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -4733,13 +4778,13 @@
         <v>163069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4799,13 @@
         <v>111071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -4769,13 +4814,13 @@
         <v>156617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -4784,13 +4829,13 @@
         <v>267688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4850,13 @@
         <v>70727</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>390</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -4820,13 +4865,13 @@
         <v>84388</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>154</v>
@@ -4835,13 +4880,13 @@
         <v>155115</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4901,13 @@
         <v>27695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>64</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -4871,13 +4916,13 @@
         <v>36102</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -4886,13 +4931,13 @@
         <v>63797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4952,13 @@
         <v>419716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>484</v>
@@ -4922,13 +4967,13 @@
         <v>380745</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>866</v>
@@ -4937,13 +4982,13 @@
         <v>800462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +5003,13 @@
         <v>2140214</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>2889</v>
@@ -4973,13 +5018,13 @@
         <v>2226950</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>4863</v>
@@ -4988,13 +5033,13 @@
         <v>4367164</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5056,13 @@
         <v>326269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>492</v>
@@ -5026,13 +5071,13 @@
         <v>342786</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>845</v>
@@ -5041,13 +5086,13 @@
         <v>669055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5107,13 @@
         <v>66731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -5077,13 +5122,13 @@
         <v>41425</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>113</v>
@@ -5092,13 +5137,13 @@
         <v>108155</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5158,13 @@
         <v>90896</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>299</v>
+        <v>431</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="H24" s="7">
         <v>148</v>
@@ -5128,13 +5173,13 @@
         <v>98911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="M24" s="7">
         <v>239</v>
@@ -5143,13 +5188,13 @@
         <v>189807</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>426</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5209,13 @@
         <v>27224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>389</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -5179,13 +5224,13 @@
         <v>33301</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -5194,13 +5239,13 @@
         <v>60524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>62</v>
+        <v>443</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5260,13 @@
         <v>39197</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>327</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -5230,13 +5275,13 @@
         <v>59951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -5245,13 +5290,13 @@
         <v>99148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>21</v>
+        <v>451</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5311,13 @@
         <v>26625</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>141</v>
+        <v>453</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -5281,13 +5326,13 @@
         <v>36249</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="M27" s="7">
         <v>79</v>
@@ -5299,10 +5344,10 @@
         <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>47</v>
+        <v>458</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5362,13 @@
         <v>4903</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -5332,13 +5377,13 @@
         <v>9461</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -5347,13 +5392,13 @@
         <v>14364</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5413,13 @@
         <v>83515</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>366</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>119</v>
@@ -5383,13 +5428,13 @@
         <v>88741</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>196</v>
@@ -5398,13 +5443,13 @@
         <v>172256</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>106</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5464,13 @@
         <v>665359</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7">
         <v>999</v>
@@ -5434,13 +5479,13 @@
         <v>710824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M30" s="7">
         <v>1673</v>
@@ -5449,13 +5494,13 @@
         <v>1376183</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5517,13 @@
         <v>1386717</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="H31" s="7">
         <v>2057</v>
@@ -5487,13 +5532,13 @@
         <v>1493172</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="M31" s="7">
         <v>3520</v>
@@ -5502,13 +5547,13 @@
         <v>2879889</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5568,13 @@
         <v>462634</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>470</v>
+        <v>28</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="H32" s="7">
         <v>526</v>
@@ -5538,13 +5583,13 @@
         <v>396916</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>34</v>
+        <v>489</v>
       </c>
       <c r="M32" s="7">
         <v>931</v>
@@ -5553,13 +5598,13 @@
         <v>859550</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>474</v>
+        <v>299</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5619,13 @@
         <v>396087</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>193</v>
+        <v>493</v>
       </c>
       <c r="H33" s="7">
         <v>698</v>
@@ -5589,13 +5634,13 @@
         <v>471437</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="M33" s="7">
         <v>1084</v>
@@ -5604,13 +5649,13 @@
         <v>867523</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5670,13 @@
         <v>115605</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>485</v>
+        <v>163</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="H34" s="7">
         <v>216</v>
@@ -5640,13 +5685,13 @@
         <v>147211</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="M34" s="7">
         <v>321</v>
@@ -5655,13 +5700,13 @@
         <v>262816</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5721,13 @@
         <v>175742</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>491</v>
+        <v>116</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>252</v>
+        <v>504</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>492</v>
+        <v>259</v>
       </c>
       <c r="H35" s="7">
         <v>381</v>
@@ -5691,13 +5736,13 @@
         <v>263184</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="M35" s="7">
         <v>554</v>
@@ -5706,13 +5751,13 @@
         <v>438926</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>495</v>
+        <v>259</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>263</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5772,13 @@
         <v>109321</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>184</v>
+        <v>509</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>41</v>
+        <v>511</v>
       </c>
       <c r="H36" s="7">
         <v>205</v>
@@ -5742,13 +5787,13 @@
         <v>155445</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>429</v>
+        <v>26</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="M36" s="7">
         <v>307</v>
@@ -5757,13 +5802,13 @@
         <v>264766</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>499</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5823,13 @@
         <v>36633</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>332</v>
+        <v>514</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="H37" s="7">
         <v>86</v>
@@ -5793,13 +5838,13 @@
         <v>61131</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="M37" s="7">
         <v>125</v>
@@ -5808,13 +5853,13 @@
         <v>97764</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>445</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5874,13 @@
         <v>656147</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="H38" s="7">
         <v>1127</v>
@@ -5844,13 +5889,13 @@
         <v>771565</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="M38" s="7">
         <v>1785</v>
@@ -5859,13 +5904,13 @@
         <v>1427713</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5925,13 @@
         <v>3338886</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7">
         <v>5296</v>
@@ -5895,13 +5940,13 @@
         <v>3760060</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M39" s="7">
         <v>8627</v>
@@ -5910,18 +5955,18 @@
         <v>7098946</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
